--- a/biology/Zoologie/Hyla_intermedia/Hyla_intermedia.xlsx
+++ b/biology/Zoologie/Hyla_intermedia/Hyla_intermedia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyla intermedia est une espèce d'amphibiens de la famille des Hylidae[1]. Elle ressemble beaucoup à la Rainette verte, dont elle a été considérée comme une sous-espèce, ainsi qu'à la Rainette de Perrin, avec laquelle elle a été confondue jusqu'à la description de cette dernière par Dufresnes et al. en 2018[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyla intermedia est une espèce d'amphibiens de la famille des Hylidae. Elle ressemble beaucoup à la Rainette verte, dont elle a été considérée comme une sous-espèce, ainsi qu'à la Rainette de Perrin, avec laquelle elle a été confondue jusqu'à la description de cette dernière par Dufresnes et al. en 2018.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre du niveau de la mer jusqu'à 1 855 m d'altitude en Sicile, en Italie continentale, dans le sud du Tessin en Suisse et dans l'ouest de la Slovénie[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre du niveau de la mer jusqu'à 1 855 m d'altitude en Sicile, en Italie continentale, dans le sud du Tessin en Suisse et dans l'ouest de la Slovénie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Boulenger, 1882 : Catalogue of the Batrachia Salientia s. Ecaudata in the collection of the British Museum, ed. 2, p. 1-503 (texte intégral).</t>
         </is>
